--- a/Check-list.xlsx
+++ b/Check-list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>№</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Сортировка порядка новостей по дате происходит, но фокус экрана перемещается в конец списка на последнюю запись</t>
+  </si>
+  <si>
+    <t>Редактирование претензии доступно, только для претензии в статусе "Open"</t>
   </si>
 </sst>
 </file>
@@ -536,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,10 +548,10 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" customWidth="1"/>
+    <col min="4" max="4" width="68.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,10 +692,12 @@
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3"/>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -766,7 +771,7 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -804,7 +809,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
